--- a/biology/Zoologie/Conus_kinoshitai/Conus_kinoshitai.xlsx
+++ b/biology/Zoologie/Conus_kinoshitai/Conus_kinoshitai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus kinoshitai est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille d'une coquille adulte varie entre 40 mm et 94 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer de Chine méridionale et dans l'océan Pacifique des Philippines aux Solomons. Il y a également des rapports dans l'océan Indien du Mozambique, Madagascar, et Réunion.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente du Japon aux Philippines et aux îles Salomon. Elle est également enregistrée au Mozambique, à Madagascar, à l'île de la Réunion et au nord-ouest de l'Australie. Cette espèce est très commune dans les eaux profondes. Il s'agit d'une espèce très répandue qui n'est confrontée à aucune menace connue à l'heure actuelle. Cette espèce est classée dans la catégorie préoccupation mineure[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente du Japon aux Philippines et aux îles Salomon. Elle est également enregistrée au Mozambique, à Madagascar, à l'île de la Réunion et au nord-ouest de l'Australie. Cette espèce est très commune dans les eaux profondes. Il s'agit d'une espèce très répandue qui n'est confrontée à aucune menace connue à l'heure actuelle. Cette espèce est classée dans la catégorie préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_kinoshitai</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_kinoshitai</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus kinoshitai a été décrite pour la première fois en 1956 par le malacologiste japonais Tokubei Kuroda (1886-1987)[2] dans la publication intitulée « Venus »[3],[4].
-Synonymes
-Afonsoconus kinoshitai (Kuroda, 1956) · non accepté
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus kinoshitai a été décrite pour la première fois en 1956 par le malacologiste japonais Tokubei Kuroda (1886-1987) dans la publication intitulée « Venus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_kinoshitai</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_kinoshitai</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Afonsoconus kinoshitai (Kuroda, 1956) · non accepté
 Asprella kinoshitai (Kuroda, 1956) · non accepté
 Chelyconus kinoshitai Kuroda, 1956 · non accepté (combinaison originale)
 Conus (Afonsoconus) kinoshitai (Kuroda, 1956) · appellation alternative
